--- a/csv2xlsx/example/out.xlsx
+++ b/csv2xlsx/example/out.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Sh1" sheetId="1" r:id="rId1" state="visible"/>
     <sheet name="Sh2" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="NewSheet" sheetId="3" r:id="rId3" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sheet 1 Title</t>
   </si>
@@ -52,6 +53,27 @@
     <t>text</t>
   </si>
   <si>
+    <t>śćżźćż utf encoding</t>
+  </si>
+  <si>
+    <t>2017-05-29 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>utf-8              </t>
+  </si>
+  <si>
+    <t>2017-05-29 12:55:47</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Sheet  2 Title</t>
   </si>
   <si>
@@ -59,21 +81,6 @@
   </si>
   <si>
     <t>formula</t>
-  </si>
-  <si>
-    <t>śćżźćż utf encoding</t>
-  </si>
-  <si>
-    <t>2017-05-29</t>
-  </si>
-  <si>
-    <t>2019-10-18</t>
-  </si>
-  <si>
-    <t>utf-8              </t>
-  </si>
-  <si>
-    <t>2017-05-29 12:55:47</t>
   </si>
 </sst>
 </file>
@@ -84,13 +91,19 @@
     <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -178,13 +191,16 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
@@ -194,10 +210,10 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -224,20 +240,23 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="165" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="1" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="167" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="1" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
@@ -245,7 +264,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="3" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="3" fontId="3" numFmtId="167" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="3" fontId="4" numFmtId="167" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -580,7 +599,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -598,83 +617,301 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.28515625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.28515625" customWidth="true"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7109375" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.15" customHeight="true">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" ht="36" customHeight="true">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="true">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="16.15" customHeight="true">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>13292</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1231.12</v>
+      </c>
+      <c r="L4" s="2">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10">
+        <v>111111111111</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K5" s="2">
+        <v>123</v>
+      </c>
+      <c r="L5" s="2">
+        <f>J5+K5</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10">
+        <v>111111111111</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K6" s="2">
+        <v>123</v>
+      </c>
+      <c r="L6" s="2">
+        <f>J6+K6</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10">
+        <v>111111111111</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10">
+        <v>111111111111</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K8" s="2">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10">
+        <v>111111111111</v>
+      </c>
+      <c r="J9" s="10">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -712,319 +949,317 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="8.7109375" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="16.85546875" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.42578125" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="14.140625" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="26.85546875" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="14.5703125" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="18" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="12.7109375" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="29.140625" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="13" width="14.7109375" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="14.5703125" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="10" width="16.7109375" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="8.7109375" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="16.85546875" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="13.42578125" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="14.140625" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="26.85546875" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="14.5703125" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="18" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="12.7109375" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="11" width="29.140625" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="14.7109375" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="15" width="14.5703125" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="11" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="11" t="s"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="11" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>2222</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>13292</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="10" t="s"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="F4" s="9">
+        <v>2264</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="10" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7">
-        <v>2222</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>13292</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20">
-        <v>2264</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="J4" s="10">
+        <v>2004</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1231.12</v>
+      </c>
+      <c r="L4" s="11" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="F5" s="22">
+        <v>2264</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8">
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9">
         <v>111111111111</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J5" s="23">
         <v>2004</v>
       </c>
-      <c r="K4" s="22">
-        <v>1231.123</v>
-      </c>
-      <c r="L4" s="10">
-        <f>J4+K4</f>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7">
+      <c r="K5" s="24">
+        <v>123</v>
+      </c>
+      <c r="L5" s="14">
+        <f>J5+K5</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
         <v>3333</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
         <v>16406</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="20">
-        <v>2264</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2264</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8">
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9">
         <v>111111111111</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J6" s="23">
         <v>2004</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K6" s="24">
         <v>123</v>
       </c>
-      <c r="L5" s="10">
-        <f>J5+K5</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7">
+      <c r="L6" s="14">
+        <f>J6+K6</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
         <v>3333</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>16406</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="20">
-        <v>2264</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2264</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8">
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9">
         <v>111111111111</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J7" s="23">
         <v>2004</v>
       </c>
-      <c r="K6" s="22">
-        <v>123</v>
-      </c>
-      <c r="L6" s="10">
-        <f>J6+K6</f>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
+      <c r="K7" s="24">
+        <v>100</v>
+      </c>
+      <c r="L7" s="14">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
         <v>3333</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
         <v>16406</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="20">
-        <v>2264</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2264</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="8">
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="9">
         <v>111111111111</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J8" s="23">
         <v>2004</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K8" s="24">
+        <v>23</v>
+      </c>
+      <c r="L8" s="14">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>3333</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>16406</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2264</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="9">
+        <v>111111111111</v>
+      </c>
+      <c r="J9" s="23">
         <v>100</v>
       </c>
-      <c r="L7" s="10">
-        <f>J:J+K:K</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>3333</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>16406</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20">
-        <v>2264</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8">
-        <v>111111111111</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2004</v>
-      </c>
-      <c r="K8" s="22">
+      <c r="K9" s="24">
         <v>23</v>
       </c>
-      <c r="L8" s="10">
-        <f>J:J+K:K</f>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>3333</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16406</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2264</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8">
-        <v>111111111111</v>
-      </c>
-      <c r="J9" s="21">
-        <v>100</v>
-      </c>
-      <c r="K9" s="22">
-        <v>23</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="L9" s="14">
         <f>K:K+J:J</f>
       </c>
     </row>
@@ -1050,4 +1285,270 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2">
+        <v>2222</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>13292</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2264</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1231.12</v>
+      </c>
+      <c r="L1" s="2">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16406</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2264</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K2" s="2">
+        <v>123</v>
+      </c>
+      <c r="L2" s="2">
+        <f>J5+K5</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16406</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2264</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K3" s="2">
+        <v>123</v>
+      </c>
+      <c r="L3" s="2">
+        <f>J6+K6</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16406</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2264</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16406</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2264</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K5" s="2">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2">
+        <f>J:J+K:K</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16406</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2264</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>